--- a/Multi-taxa_data/MollEchino/Output/inv_primer.xlsx
+++ b/Multi-taxa_data/MollEchino/Output/inv_primer.xlsx
@@ -13,7 +13,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="198">
+  <si>
+    <t xml:space="preserve">Class</t>
+  </si>
   <si>
     <t xml:space="preserve">AW_D1</t>
   </si>
@@ -222,211 +225,238 @@
     <t xml:space="preserve">ZP_S3</t>
   </si>
   <si>
-    <t xml:space="preserve">V1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">V2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">V3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">V4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">V5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">V6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">V7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">V8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">V9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">V10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">V11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">V12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">V13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">V14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">V15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">V16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">V17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">V18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">V19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">V20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">V21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">V22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">V23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">V24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">V25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">V26</t>
-  </si>
-  <si>
-    <t xml:space="preserve">V27</t>
-  </si>
-  <si>
-    <t xml:space="preserve">V28</t>
-  </si>
-  <si>
-    <t xml:space="preserve">V29</t>
-  </si>
-  <si>
-    <t xml:space="preserve">V30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">V31</t>
-  </si>
-  <si>
-    <t xml:space="preserve">V32</t>
-  </si>
-  <si>
-    <t xml:space="preserve">V33</t>
-  </si>
-  <si>
-    <t xml:space="preserve">V34</t>
-  </si>
-  <si>
-    <t xml:space="preserve">V35</t>
-  </si>
-  <si>
-    <t xml:space="preserve">V36</t>
-  </si>
-  <si>
-    <t xml:space="preserve">V37</t>
-  </si>
-  <si>
-    <t xml:space="preserve">V38</t>
-  </si>
-  <si>
-    <t xml:space="preserve">V39</t>
-  </si>
-  <si>
-    <t xml:space="preserve">V40</t>
-  </si>
-  <si>
-    <t xml:space="preserve">V41</t>
-  </si>
-  <si>
-    <t xml:space="preserve">V42</t>
-  </si>
-  <si>
-    <t xml:space="preserve">V43</t>
-  </si>
-  <si>
-    <t xml:space="preserve">V44</t>
-  </si>
-  <si>
-    <t xml:space="preserve">V45</t>
-  </si>
-  <si>
-    <t xml:space="preserve">V46</t>
-  </si>
-  <si>
-    <t xml:space="preserve">V47</t>
-  </si>
-  <si>
-    <t xml:space="preserve">V48</t>
-  </si>
-  <si>
-    <t xml:space="preserve">V49</t>
-  </si>
-  <si>
-    <t xml:space="preserve">V50</t>
-  </si>
-  <si>
-    <t xml:space="preserve">V51</t>
-  </si>
-  <si>
-    <t xml:space="preserve">V52</t>
-  </si>
-  <si>
-    <t xml:space="preserve">V53</t>
-  </si>
-  <si>
-    <t xml:space="preserve">V54</t>
-  </si>
-  <si>
-    <t xml:space="preserve">V55</t>
-  </si>
-  <si>
-    <t xml:space="preserve">V56</t>
-  </si>
-  <si>
-    <t xml:space="preserve">V57</t>
-  </si>
-  <si>
-    <t xml:space="preserve">V58</t>
-  </si>
-  <si>
-    <t xml:space="preserve">V59</t>
-  </si>
-  <si>
-    <t xml:space="preserve">V60</t>
-  </si>
-  <si>
-    <t xml:space="preserve">V61</t>
-  </si>
-  <si>
-    <t xml:space="preserve">V62</t>
-  </si>
-  <si>
-    <t xml:space="preserve">V63</t>
-  </si>
-  <si>
-    <t xml:space="preserve">V64</t>
-  </si>
-  <si>
-    <t xml:space="preserve">V65</t>
-  </si>
-  <si>
-    <t xml:space="preserve">V66</t>
-  </si>
-  <si>
-    <t xml:space="preserve">V67</t>
-  </si>
-  <si>
-    <t xml:space="preserve">V68</t>
-  </si>
-  <si>
-    <t xml:space="preserve">V69</t>
+    <t xml:space="preserve">Bivalvia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gastropoda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Asteroidea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Crinoidea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Echinoidea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Holothuroidea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ophiuroidea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Factor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X35</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X36</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X37</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X38</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X39</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X41</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X42</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X43</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X44</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X45</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X46</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X47</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X48</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X49</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X51</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X52</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X53</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X54</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X55</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X56</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X57</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X58</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X59</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X60</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X61</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X62</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X63</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X64</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X65</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X66</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X67</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X68</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X69</t>
+  </si>
+  <si>
+    <t xml:space="preserve">site</t>
   </si>
   <si>
     <t xml:space="preserve">AW</t>
@@ -465,12 +495,18 @@
     <t xml:space="preserve">ZP</t>
   </si>
   <si>
+    <t xml:space="preserve">depth</t>
+  </si>
+  <si>
     <t xml:space="preserve">D</t>
   </si>
   <si>
     <t xml:space="preserve">S</t>
   </si>
   <si>
+    <t xml:space="preserve">site_depth</t>
+  </si>
+  <si>
     <t xml:space="preserve">AW_D</t>
   </si>
   <si>
@@ -540,6 +576,9 @@
     <t xml:space="preserve">ZP_S</t>
   </si>
   <si>
+    <t xml:space="preserve">pressure</t>
+  </si>
+  <si>
     <t xml:space="preserve">High</t>
   </si>
   <si>
@@ -547,6 +586,9 @@
   </si>
   <si>
     <t xml:space="preserve">Medium</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pressure_depth</t>
   </si>
   <si>
     <t xml:space="preserve">High_D</t>
@@ -1104,432 +1146,441 @@
       <c r="BQ1" t="s">
         <v>68</v>
       </c>
+      <c r="BR1" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
-        <v>0</v>
+      <c r="A2" t="s">
+        <v>70</v>
       </c>
       <c r="B2" t="n">
-        <v>0.693147180559945</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
+        <v>0.693147180559945</v>
+      </c>
+      <c r="D2" t="n">
         <v>1.6094379124341</v>
       </c>
-      <c r="D2" t="n">
+      <c r="E2" t="n">
         <v>1.38629436111989</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>2.63905732961526</v>
       </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
       <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
         <v>1.09861228866811</v>
       </c>
-      <c r="H2" t="n">
+      <c r="I2" t="n">
         <v>1.79175946922805</v>
       </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0.693147180559945</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>0.693147180559945</v>
       </c>
       <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
         <v>3.04452243772342</v>
       </c>
-      <c r="N2" t="n">
+      <c r="O2" t="n">
         <v>2.30258509299405</v>
       </c>
-      <c r="O2" t="n">
+      <c r="P2" t="n">
         <v>2.70805020110221</v>
       </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
       <c r="Q2" t="n">
-        <v>0.693147180559945</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>0.693147180559945</v>
       </c>
       <c r="S2" t="n">
+        <v>0.693147180559945</v>
+      </c>
+      <c r="T2" t="n">
         <v>2.63905732961526</v>
       </c>
-      <c r="T2" t="n">
+      <c r="U2" t="n">
         <v>1.94591014905531</v>
       </c>
-      <c r="U2" t="n">
+      <c r="V2" t="n">
         <v>1.09861228866811</v>
       </c>
-      <c r="V2" t="n">
+      <c r="W2" t="n">
         <v>2.63905732961526</v>
       </c>
-      <c r="W2" t="n">
+      <c r="X2" t="n">
         <v>2.30258509299405</v>
       </c>
-      <c r="X2" t="n">
+      <c r="Y2" t="n">
         <v>3.09104245335832</v>
       </c>
-      <c r="Y2" t="n">
-        <v>0</v>
-      </c>
       <c r="Z2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA2" t="n">
         <v>1.09861228866811</v>
       </c>
-      <c r="AA2" t="n">
-        <v>0</v>
-      </c>
       <c r="AB2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC2" t="n">
         <v>2.19722457733622</v>
       </c>
-      <c r="AC2" t="n">
+      <c r="AD2" t="n">
         <v>2.484906649788</v>
       </c>
-      <c r="AD2" t="n">
+      <c r="AE2" t="n">
         <v>1.79175946922805</v>
       </c>
-      <c r="AE2" t="n">
+      <c r="AF2" t="n">
         <v>2.70805020110221</v>
       </c>
-      <c r="AF2" t="n">
+      <c r="AG2" t="n">
         <v>2.99573227355399</v>
       </c>
-      <c r="AG2" t="n">
+      <c r="AH2" t="n">
         <v>3.09104245335832</v>
       </c>
-      <c r="AH2" t="n">
+      <c r="AI2" t="n">
         <v>2.89037175789616</v>
       </c>
-      <c r="AI2" t="n">
+      <c r="AJ2" t="n">
         <v>2.30258509299405</v>
       </c>
-      <c r="AJ2" t="n">
+      <c r="AK2" t="n">
         <v>2.484906649788</v>
       </c>
-      <c r="AK2" t="n">
-        <v>0</v>
-      </c>
       <c r="AL2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM2" t="n">
         <v>2.07944154167984</v>
       </c>
-      <c r="AM2" t="n">
+      <c r="AN2" t="n">
         <v>3.36729582998647</v>
       </c>
-      <c r="AN2" t="n">
+      <c r="AO2" t="n">
         <v>2.07944154167984</v>
       </c>
-      <c r="AO2" t="n">
+      <c r="AP2" t="n">
         <v>2.30258509299405</v>
       </c>
-      <c r="AP2" t="n">
+      <c r="AQ2" t="n">
         <v>2.63905732961526</v>
       </c>
-      <c r="AQ2" t="n">
+      <c r="AR2" t="n">
         <v>3.13549421592915</v>
       </c>
-      <c r="AR2" t="n">
+      <c r="AS2" t="n">
         <v>2.99573227355399</v>
       </c>
-      <c r="AS2" t="n">
+      <c r="AT2" t="n">
         <v>2.77258872223978</v>
       </c>
-      <c r="AT2" t="n">
-        <v>0.693147180559945</v>
-      </c>
       <c r="AU2" t="n">
-        <v>0</v>
+        <v>0.693147180559945</v>
       </c>
       <c r="AV2" t="n">
         <v>0</v>
       </c>
       <c r="AW2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX2" t="n">
         <v>1.09861228866811</v>
       </c>
-      <c r="AX2" t="n">
+      <c r="AY2" t="n">
         <v>1.79175946922805</v>
       </c>
-      <c r="AY2" t="n">
+      <c r="AZ2" t="n">
         <v>3.29583686600433</v>
       </c>
-      <c r="AZ2" t="n">
-        <v>0</v>
-      </c>
       <c r="BA2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB2" t="n">
         <v>1.09861228866811</v>
       </c>
-      <c r="BB2" t="n">
+      <c r="BC2" t="n">
         <v>1.38629436111989</v>
       </c>
-      <c r="BC2" t="n">
+      <c r="BD2" t="n">
         <v>1.09861228866811</v>
       </c>
-      <c r="BD2" t="n">
+      <c r="BE2" t="n">
         <v>1.6094379124341</v>
       </c>
-      <c r="BE2" t="n">
+      <c r="BF2" t="n">
         <v>1.38629436111989</v>
       </c>
-      <c r="BF2" t="n">
-        <v>0</v>
-      </c>
       <c r="BG2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH2" t="n">
         <v>1.09861228866811</v>
       </c>
-      <c r="BH2" t="n">
+      <c r="BI2" t="n">
         <v>2.30258509299405</v>
       </c>
-      <c r="BI2" t="n">
+      <c r="BJ2" t="n">
         <v>1.38629436111989</v>
       </c>
-      <c r="BJ2" t="n">
-        <v>0.693147180559945</v>
-      </c>
       <c r="BK2" t="n">
+        <v>0.693147180559945</v>
+      </c>
+      <c r="BL2" t="n">
         <v>2.63905732961526</v>
       </c>
-      <c r="BL2" t="n">
-        <v>0.693147180559945</v>
-      </c>
       <c r="BM2" t="n">
+        <v>0.693147180559945</v>
+      </c>
+      <c r="BN2" t="n">
         <v>1.6094379124341</v>
       </c>
-      <c r="BN2" t="n">
+      <c r="BO2" t="n">
         <v>1.09861228866811</v>
       </c>
-      <c r="BO2" t="n">
+      <c r="BP2" t="n">
         <v>2.19722457733622</v>
       </c>
-      <c r="BP2" t="n">
-        <v>0.693147180559945</v>
-      </c>
       <c r="BQ2" t="n">
+        <v>0.693147180559945</v>
+      </c>
+      <c r="BR2" t="n">
         <v>1.94591014905531</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="n">
+      <c r="A3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B3" t="n">
         <v>1.09861228866811</v>
       </c>
-      <c r="B3" t="n">
-        <v>0.693147180559945</v>
-      </c>
       <c r="C3" t="n">
-        <v>1.79175946922805</v>
+        <v>0.693147180559945</v>
       </c>
       <c r="D3" t="n">
         <v>1.79175946922805</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>1.79175946922805</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
         <v>1.38629436111989</v>
       </c>
-      <c r="H3" t="n">
+      <c r="I3" t="n">
         <v>1.94591014905531</v>
       </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
       <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
         <v>1.38629436111989</v>
       </c>
-      <c r="K3" t="n">
+      <c r="L3" t="n">
         <v>2.07944154167984</v>
       </c>
-      <c r="L3" t="n">
+      <c r="M3" t="n">
         <v>1.6094379124341</v>
-      </c>
-      <c r="M3" t="n">
-        <v>1.38629436111989</v>
       </c>
       <c r="N3" t="n">
         <v>1.38629436111989</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>1.38629436111989</v>
       </c>
       <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
         <v>1.6094379124341</v>
       </c>
-      <c r="Q3" t="n">
+      <c r="R3" t="n">
         <v>2.30258509299405</v>
       </c>
-      <c r="R3" t="n">
+      <c r="S3" t="n">
         <v>1.38629436111989</v>
       </c>
-      <c r="S3" t="n">
+      <c r="T3" t="n">
         <v>3.13549421592915</v>
       </c>
-      <c r="T3" t="n">
+      <c r="U3" t="n">
         <v>1.09861228866811</v>
       </c>
-      <c r="U3" t="n">
+      <c r="V3" t="n">
         <v>2.19722457733622</v>
       </c>
-      <c r="V3" t="n">
+      <c r="W3" t="n">
         <v>2.99573227355399</v>
       </c>
-      <c r="W3" t="n">
+      <c r="X3" t="n">
         <v>2.70805020110221</v>
       </c>
-      <c r="X3" t="n">
+      <c r="Y3" t="n">
         <v>3.04452243772342</v>
       </c>
-      <c r="Y3" t="n">
+      <c r="Z3" t="n">
         <v>1.38629436111989</v>
       </c>
-      <c r="Z3" t="n">
+      <c r="AA3" t="n">
         <v>1.79175946922805</v>
       </c>
-      <c r="AA3" t="n">
+      <c r="AB3" t="n">
         <v>2.19722457733622</v>
       </c>
-      <c r="AB3" t="n">
+      <c r="AC3" t="n">
         <v>2.39789527279837</v>
       </c>
-      <c r="AC3" t="n">
+      <c r="AD3" t="n">
         <v>3.25809653802148</v>
       </c>
-      <c r="AD3" t="n">
+      <c r="AE3" t="n">
         <v>2.70805020110221</v>
       </c>
-      <c r="AE3" t="n">
+      <c r="AF3" t="n">
         <v>2.19722457733622</v>
       </c>
-      <c r="AF3" t="n">
+      <c r="AG3" t="n">
         <v>2.30258509299405</v>
       </c>
-      <c r="AG3" t="n">
+      <c r="AH3" t="n">
         <v>2.70805020110221</v>
       </c>
-      <c r="AH3" t="n">
+      <c r="AI3" t="n">
         <v>2.484906649788</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>2.07944154167984</v>
       </c>
       <c r="AJ3" t="n">
         <v>2.07944154167984</v>
       </c>
       <c r="AK3" t="n">
-        <v>0</v>
+        <v>2.07944154167984</v>
       </c>
       <c r="AL3" t="n">
-        <v>0.693147180559945</v>
+        <v>0</v>
       </c>
       <c r="AM3" t="n">
+        <v>0.693147180559945</v>
+      </c>
+      <c r="AN3" t="n">
         <v>2.99573227355399</v>
       </c>
-      <c r="AN3" t="n">
+      <c r="AO3" t="n">
         <v>1.94591014905531</v>
       </c>
-      <c r="AO3" t="n">
+      <c r="AP3" t="n">
         <v>2.07944154167984</v>
       </c>
-      <c r="AP3" t="n">
+      <c r="AQ3" t="n">
         <v>2.484906649788</v>
       </c>
-      <c r="AQ3" t="n">
+      <c r="AR3" t="n">
         <v>1.38629436111989</v>
       </c>
-      <c r="AR3" t="n">
+      <c r="AS3" t="n">
         <v>2.07944154167984</v>
       </c>
-      <c r="AS3" t="n">
+      <c r="AT3" t="n">
         <v>2.19722457733622</v>
       </c>
-      <c r="AT3" t="n">
+      <c r="AU3" t="n">
         <v>2.07944154167984</v>
       </c>
-      <c r="AU3" t="n">
+      <c r="AV3" t="n">
         <v>1.79175946922805</v>
       </c>
-      <c r="AV3" t="n">
+      <c r="AW3" t="n">
         <v>2.77258872223978</v>
       </c>
-      <c r="AW3" t="n">
+      <c r="AX3" t="n">
         <v>2.484906649788</v>
       </c>
-      <c r="AX3" t="n">
+      <c r="AY3" t="n">
         <v>2.94443897916644</v>
       </c>
-      <c r="AY3" t="n">
+      <c r="AZ3" t="n">
         <v>2.56494935746154</v>
       </c>
-      <c r="AZ3" t="n">
+      <c r="BA3" t="n">
         <v>2.484906649788</v>
       </c>
-      <c r="BA3" t="n">
+      <c r="BB3" t="n">
         <v>2.07944154167984</v>
       </c>
-      <c r="BB3" t="n">
+      <c r="BC3" t="n">
         <v>1.79175946922805</v>
       </c>
-      <c r="BC3" t="n">
+      <c r="BD3" t="n">
         <v>3.17805383034795</v>
       </c>
-      <c r="BD3" t="n">
+      <c r="BE3" t="n">
         <v>2.94443897916644</v>
       </c>
-      <c r="BE3" t="n">
+      <c r="BF3" t="n">
         <v>2.83321334405622</v>
       </c>
-      <c r="BF3" t="n">
+      <c r="BG3" t="n">
         <v>2.07944154167984</v>
       </c>
-      <c r="BG3" t="n">
+      <c r="BH3" t="n">
         <v>2.39789527279837</v>
       </c>
-      <c r="BH3" t="n">
-        <v>0</v>
-      </c>
       <c r="BI3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ3" t="n">
         <v>1.6094379124341</v>
       </c>
-      <c r="BJ3" t="n">
+      <c r="BK3" t="n">
         <v>2.19722457733622</v>
       </c>
-      <c r="BK3" t="n">
+      <c r="BL3" t="n">
         <v>3.43398720448515</v>
       </c>
-      <c r="BL3" t="n">
+      <c r="BM3" t="n">
         <v>3.3322045101752</v>
       </c>
-      <c r="BM3" t="n">
+      <c r="BN3" t="n">
         <v>2.89037175789616</v>
       </c>
-      <c r="BN3" t="n">
+      <c r="BO3" t="n">
         <v>3.3322045101752</v>
       </c>
-      <c r="BO3" t="n">
+      <c r="BP3" t="n">
         <v>2.484906649788</v>
       </c>
-      <c r="BP3" t="n">
+      <c r="BQ3" t="n">
         <v>3.17805383034795</v>
       </c>
-      <c r="BQ3" t="n">
+      <c r="BR3" t="n">
         <v>3.49650756146648</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="n">
+      <c r="A4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B4" t="n">
         <v>1.38629436111989</v>
       </c>
-      <c r="B4" t="n">
-        <v>0.693147180559945</v>
-      </c>
       <c r="C4" t="n">
         <v>0.693147180559945</v>
       </c>
@@ -1540,22 +1591,22 @@
         <v>0.693147180559945</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>0.693147180559945</v>
       </c>
       <c r="G4" t="n">
-        <v>0.693147180559945</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0.693147180559945</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>0.693147180559945</v>
       </c>
       <c r="J4" t="n">
-        <v>0.693147180559945</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>0.693147180559945</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -1567,56 +1618,56 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" t="n">
         <v>1.09861228866811</v>
       </c>
-      <c r="P4" t="n">
-        <v>0.693147180559945</v>
-      </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>0.693147180559945</v>
       </c>
       <c r="R4" t="n">
-        <v>0.693147180559945</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0.693147180559945</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>0.693147180559945</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0.693147180559945</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0.693147180559945</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>0.693147180559945</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.693147180559945</v>
+        <v>0</v>
       </c>
       <c r="Z4" t="n">
-        <v>0</v>
+        <v>0.693147180559945</v>
       </c>
       <c r="AA4" t="n">
         <v>0</v>
       </c>
       <c r="AB4" t="n">
-        <v>0.693147180559945</v>
+        <v>0</v>
       </c>
       <c r="AC4" t="n">
         <v>0.693147180559945</v>
       </c>
       <c r="AD4" t="n">
+        <v>0.693147180559945</v>
+      </c>
+      <c r="AE4" t="n">
         <v>1.38629436111989</v>
       </c>
-      <c r="AE4" t="n">
-        <v>0</v>
-      </c>
       <c r="AF4" t="n">
         <v>0</v>
       </c>
@@ -1624,38 +1675,38 @@
         <v>0</v>
       </c>
       <c r="AH4" t="n">
-        <v>0.693147180559945</v>
+        <v>0</v>
       </c>
       <c r="AI4" t="n">
-        <v>0</v>
+        <v>0.693147180559945</v>
       </c>
       <c r="AJ4" t="n">
         <v>0</v>
       </c>
       <c r="AK4" t="n">
-        <v>1.09861228866811</v>
+        <v>0</v>
       </c>
       <c r="AL4" t="n">
         <v>1.09861228866811</v>
       </c>
       <c r="AM4" t="n">
-        <v>0</v>
+        <v>1.09861228866811</v>
       </c>
       <c r="AN4" t="n">
-        <v>0.693147180559945</v>
+        <v>0</v>
       </c>
       <c r="AO4" t="n">
-        <v>0</v>
+        <v>0.693147180559945</v>
       </c>
       <c r="AP4" t="n">
         <v>0</v>
       </c>
       <c r="AQ4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR4" t="n">
         <v>1.79175946922805</v>
       </c>
-      <c r="AR4" t="n">
-        <v>0.693147180559945</v>
-      </c>
       <c r="AS4" t="n">
         <v>0.693147180559945</v>
       </c>
@@ -1663,324 +1714,330 @@
         <v>0.693147180559945</v>
       </c>
       <c r="AU4" t="n">
-        <v>0</v>
+        <v>0.693147180559945</v>
       </c>
       <c r="AV4" t="n">
-        <v>1.38629436111989</v>
+        <v>0</v>
       </c>
       <c r="AW4" t="n">
         <v>1.38629436111989</v>
       </c>
       <c r="AX4" t="n">
+        <v>1.38629436111989</v>
+      </c>
+      <c r="AY4" t="n">
         <v>1.79175946922805</v>
       </c>
-      <c r="AY4" t="n">
+      <c r="AZ4" t="n">
         <v>2.07944154167984</v>
       </c>
-      <c r="AZ4" t="n">
+      <c r="BA4" t="n">
         <v>1.09861228866811</v>
       </c>
-      <c r="BA4" t="n">
-        <v>0</v>
-      </c>
       <c r="BB4" t="n">
-        <v>0.693147180559945</v>
+        <v>0</v>
       </c>
       <c r="BC4" t="n">
+        <v>0.693147180559945</v>
+      </c>
+      <c r="BD4" t="n">
         <v>1.38629436111989</v>
       </c>
-      <c r="BD4" t="n">
+      <c r="BE4" t="n">
         <v>1.6094379124341</v>
       </c>
-      <c r="BE4" t="n">
+      <c r="BF4" t="n">
         <v>1.94591014905531</v>
       </c>
-      <c r="BF4" t="n">
+      <c r="BG4" t="n">
         <v>1.09861228866811</v>
       </c>
-      <c r="BG4" t="n">
-        <v>0</v>
-      </c>
       <c r="BH4" t="n">
-        <v>0.693147180559945</v>
+        <v>0</v>
       </c>
       <c r="BI4" t="n">
+        <v>0.693147180559945</v>
+      </c>
+      <c r="BJ4" t="n">
         <v>1.79175946922805</v>
       </c>
-      <c r="BJ4" t="n">
-        <v>0.693147180559945</v>
-      </c>
       <c r="BK4" t="n">
         <v>0.693147180559945</v>
       </c>
       <c r="BL4" t="n">
+        <v>0.693147180559945</v>
+      </c>
+      <c r="BM4" t="n">
         <v>1.6094379124341</v>
       </c>
-      <c r="BM4" t="n">
-        <v>0.693147180559945</v>
-      </c>
       <c r="BN4" t="n">
         <v>0.693147180559945</v>
       </c>
       <c r="BO4" t="n">
+        <v>0.693147180559945</v>
+      </c>
+      <c r="BP4" t="n">
         <v>2.39789527279837</v>
       </c>
-      <c r="BP4" t="n">
+      <c r="BQ4" t="n">
         <v>2.56494935746154</v>
       </c>
-      <c r="BQ4" t="n">
+      <c r="BR4" t="n">
         <v>1.79175946922805</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="n">
+      <c r="A5" t="s">
+        <v>73</v>
+      </c>
+      <c r="B5" t="n">
         <v>1.94591014905531</v>
       </c>
-      <c r="B5" t="n">
-        <v>0</v>
-      </c>
       <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
         <v>2.39789527279837</v>
       </c>
-      <c r="D5" t="n">
+      <c r="E5" t="n">
         <v>2.07944154167984</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>2.56494935746154</v>
       </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
         <v>1.09861228866811</v>
       </c>
-      <c r="I5" t="n">
+      <c r="J5" t="n">
         <v>1.38629436111989</v>
       </c>
-      <c r="J5" t="n">
+      <c r="K5" t="n">
         <v>4.39444915467244</v>
       </c>
-      <c r="K5" t="n">
+      <c r="L5" t="n">
         <v>4.66343909411207</v>
       </c>
-      <c r="L5" t="n">
+      <c r="M5" t="n">
         <v>4.21950770517611</v>
       </c>
-      <c r="M5" t="n">
+      <c r="N5" t="n">
         <v>3.61091791264422</v>
       </c>
-      <c r="N5" t="n">
+      <c r="O5" t="n">
         <v>2.70805020110221</v>
       </c>
-      <c r="O5" t="n">
+      <c r="P5" t="n">
         <v>1.09861228866811</v>
       </c>
-      <c r="P5" t="n">
+      <c r="Q5" t="n">
         <v>1.6094379124341</v>
       </c>
-      <c r="Q5" t="n">
+      <c r="R5" t="n">
         <v>2.19722457733622</v>
       </c>
-      <c r="R5" t="n">
+      <c r="S5" t="n">
         <v>1.79175946922805</v>
       </c>
-      <c r="S5" t="n">
+      <c r="T5" t="n">
         <v>2.94443897916644</v>
       </c>
-      <c r="T5" t="n">
+      <c r="U5" t="n">
         <v>1.6094379124341</v>
       </c>
-      <c r="U5" t="n">
+      <c r="V5" t="n">
         <v>1.38629436111989</v>
       </c>
-      <c r="V5" t="n">
+      <c r="W5" t="n">
         <v>2.83321334405622</v>
       </c>
-      <c r="W5" t="n">
+      <c r="X5" t="n">
         <v>2.77258872223978</v>
       </c>
-      <c r="X5" t="n">
-        <v>0.693147180559945</v>
-      </c>
       <c r="Y5" t="n">
+        <v>0.693147180559945</v>
+      </c>
+      <c r="Z5" t="n">
         <v>2.63905732961526</v>
       </c>
-      <c r="Z5" t="n">
+      <c r="AA5" t="n">
         <v>2.19722457733622</v>
       </c>
-      <c r="AA5" t="n">
+      <c r="AB5" t="n">
         <v>3.73766961828337</v>
       </c>
-      <c r="AB5" t="n">
+      <c r="AC5" t="n">
         <v>3.29583686600433</v>
       </c>
-      <c r="AC5" t="n">
+      <c r="AD5" t="n">
         <v>3.78418963391826</v>
       </c>
-      <c r="AD5" t="n">
+      <c r="AE5" t="n">
         <v>2.56494935746154</v>
       </c>
-      <c r="AE5" t="n">
+      <c r="AF5" t="n">
         <v>1.38629436111989</v>
       </c>
-      <c r="AF5" t="n">
+      <c r="AG5" t="n">
         <v>3.80666248977032</v>
       </c>
-      <c r="AG5" t="n">
+      <c r="AH5" t="n">
         <v>2.07944154167984</v>
       </c>
-      <c r="AH5" t="n">
+      <c r="AI5" t="n">
         <v>1.09861228866811</v>
       </c>
-      <c r="AI5" t="n">
-        <v>0</v>
-      </c>
       <c r="AJ5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK5" t="n">
         <v>1.6094379124341</v>
       </c>
-      <c r="AK5" t="n">
+      <c r="AL5" t="n">
         <v>2.56494935746154</v>
       </c>
-      <c r="AL5" t="n">
+      <c r="AM5" t="n">
         <v>1.79175946922805</v>
       </c>
-      <c r="AM5" t="n">
+      <c r="AN5" t="n">
         <v>1.09861228866811</v>
       </c>
-      <c r="AN5" t="n">
-        <v>0</v>
-      </c>
       <c r="AO5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP5" t="n">
         <v>1.6094379124341</v>
       </c>
-      <c r="AP5" t="n">
-        <v>0.693147180559945</v>
-      </c>
       <c r="AQ5" t="n">
-        <v>0</v>
+        <v>0.693147180559945</v>
       </c>
       <c r="AR5" t="n">
-        <v>0.693147180559945</v>
+        <v>0</v>
       </c>
       <c r="AS5" t="n">
+        <v>0.693147180559945</v>
+      </c>
+      <c r="AT5" t="n">
         <v>1.38629436111989</v>
       </c>
-      <c r="AT5" t="n">
+      <c r="AU5" t="n">
         <v>2.30258509299405</v>
       </c>
-      <c r="AU5" t="n">
+      <c r="AV5" t="n">
         <v>2.19722457733622</v>
       </c>
-      <c r="AV5" t="n">
+      <c r="AW5" t="n">
         <v>2.63905732961526</v>
       </c>
-      <c r="AW5" t="n">
+      <c r="AX5" t="n">
         <v>1.38629436111989</v>
       </c>
-      <c r="AX5" t="n">
+      <c r="AY5" t="n">
         <v>1.6094379124341</v>
       </c>
-      <c r="AY5" t="n">
+      <c r="AZ5" t="n">
         <v>1.94591014905531</v>
       </c>
-      <c r="AZ5" t="n">
+      <c r="BA5" t="n">
         <v>2.30258509299405</v>
       </c>
-      <c r="BA5" t="n">
+      <c r="BB5" t="n">
         <v>1.94591014905531</v>
       </c>
-      <c r="BB5" t="n">
+      <c r="BC5" t="n">
         <v>1.6094379124341</v>
       </c>
-      <c r="BC5" t="n">
+      <c r="BD5" t="n">
         <v>3.3322045101752</v>
       </c>
-      <c r="BD5" t="n">
+      <c r="BE5" t="n">
         <v>3.2188758248682</v>
       </c>
-      <c r="BE5" t="n">
+      <c r="BF5" t="n">
         <v>3.63758615972639</v>
-      </c>
-      <c r="BF5" t="n">
-        <v>2.39789527279837</v>
       </c>
       <c r="BG5" t="n">
         <v>2.39789527279837</v>
       </c>
       <c r="BH5" t="n">
+        <v>2.39789527279837</v>
+      </c>
+      <c r="BI5" t="n">
         <v>1.6094379124341</v>
       </c>
-      <c r="BI5" t="n">
+      <c r="BJ5" t="n">
         <v>3.80666248977032</v>
       </c>
-      <c r="BJ5" t="n">
+      <c r="BK5" t="n">
         <v>4.06044301054642</v>
       </c>
-      <c r="BK5" t="n">
+      <c r="BL5" t="n">
         <v>1.6094379124341</v>
       </c>
-      <c r="BL5" t="n">
+      <c r="BM5" t="n">
         <v>2.07944154167984</v>
       </c>
-      <c r="BM5" t="n">
+      <c r="BN5" t="n">
         <v>2.30258509299405</v>
       </c>
-      <c r="BN5" t="n">
+      <c r="BO5" t="n">
         <v>2.39789527279837</v>
       </c>
-      <c r="BO5" t="n">
+      <c r="BP5" t="n">
         <v>2.19722457733622</v>
       </c>
-      <c r="BP5" t="n">
+      <c r="BQ5" t="n">
         <v>2.70805020110221</v>
       </c>
-      <c r="BQ5" t="n">
+      <c r="BR5" t="n">
         <v>2.39789527279837</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="n">
+      <c r="A6" t="s">
+        <v>74</v>
+      </c>
+      <c r="B6" t="n">
         <v>3.71357206670431</v>
       </c>
-      <c r="B6" t="n">
+      <c r="C6" t="n">
         <v>4.04305126783455</v>
       </c>
-      <c r="C6" t="n">
+      <c r="D6" t="n">
         <v>3.3322045101752</v>
       </c>
-      <c r="D6" t="n">
+      <c r="E6" t="n">
         <v>5.73979291217923</v>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
         <v>5.70711026474888</v>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="n">
         <v>5.57594910314632</v>
       </c>
-      <c r="G6" t="n">
-        <v>0</v>
-      </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0.693147180559945</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
+        <v>0.693147180559945</v>
+      </c>
+      <c r="K6" t="n">
         <v>2.07944154167984</v>
       </c>
-      <c r="K6" t="n">
+      <c r="L6" t="n">
         <v>2.30258509299405</v>
       </c>
-      <c r="L6" t="n">
+      <c r="M6" t="n">
         <v>2.39789527279837</v>
       </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
       <c r="N6" t="n">
         <v>0</v>
       </c>
@@ -1988,196 +2045,199 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
         <v>2.19722457733622</v>
       </c>
-      <c r="Q6" t="n">
+      <c r="R6" t="n">
         <v>2.94443897916644</v>
       </c>
-      <c r="R6" t="n">
+      <c r="S6" t="n">
         <v>2.56494935746154</v>
       </c>
-      <c r="S6" t="n">
-        <v>0.693147180559945</v>
-      </c>
       <c r="T6" t="n">
+        <v>0.693147180559945</v>
+      </c>
+      <c r="U6" t="n">
         <v>1.94591014905531</v>
       </c>
-      <c r="U6" t="n">
+      <c r="V6" t="n">
         <v>1.38629436111989</v>
       </c>
-      <c r="V6" t="n">
+      <c r="W6" t="n">
         <v>3.40119738166216</v>
       </c>
-      <c r="W6" t="n">
+      <c r="X6" t="n">
         <v>1.6094379124341</v>
       </c>
-      <c r="X6" t="n">
-        <v>0.693147180559945</v>
-      </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>0.693147180559945</v>
       </c>
       <c r="Z6" t="n">
-        <v>0.693147180559945</v>
+        <v>0</v>
       </c>
       <c r="AA6" t="n">
+        <v>0.693147180559945</v>
+      </c>
+      <c r="AB6" t="n">
         <v>1.38629436111989</v>
       </c>
-      <c r="AB6" t="n">
+      <c r="AC6" t="n">
         <v>4.0943445622221</v>
       </c>
-      <c r="AC6" t="n">
+      <c r="AD6" t="n">
         <v>4.59511985013459</v>
       </c>
-      <c r="AD6" t="n">
+      <c r="AE6" t="n">
         <v>3.93182563272433</v>
       </c>
-      <c r="AE6" t="n">
+      <c r="AF6" t="n">
         <v>3.13549421592915</v>
       </c>
-      <c r="AF6" t="n">
+      <c r="AG6" t="n">
         <v>3.2188758248682</v>
       </c>
-      <c r="AG6" t="n">
+      <c r="AH6" t="n">
         <v>2.83321334405622</v>
       </c>
-      <c r="AH6" t="n">
+      <c r="AI6" t="n">
         <v>4.80402104473326</v>
       </c>
-      <c r="AI6" t="n">
+      <c r="AJ6" t="n">
         <v>4.04305126783455</v>
       </c>
-      <c r="AJ6" t="n">
+      <c r="AK6" t="n">
         <v>4.12713438504509</v>
       </c>
-      <c r="AK6" t="n">
+      <c r="AL6" t="n">
         <v>2.94443897916644</v>
       </c>
-      <c r="AL6" t="n">
+      <c r="AM6" t="n">
         <v>3.52636052461616</v>
       </c>
-      <c r="AM6" t="n">
+      <c r="AN6" t="n">
         <v>4.0943445622221</v>
-      </c>
-      <c r="AN6" t="n">
-        <v>3.91202300542815</v>
       </c>
       <c r="AO6" t="n">
         <v>3.91202300542815</v>
       </c>
       <c r="AP6" t="n">
+        <v>3.91202300542815</v>
+      </c>
+      <c r="AQ6" t="n">
         <v>3.80666248977032</v>
       </c>
-      <c r="AQ6" t="n">
+      <c r="AR6" t="n">
         <v>5.88887795833288</v>
       </c>
-      <c r="AR6" t="n">
+      <c r="AS6" t="n">
         <v>5.37063802812766</v>
       </c>
-      <c r="AS6" t="n">
+      <c r="AT6" t="n">
         <v>4.99043258677874</v>
       </c>
-      <c r="AT6" t="n">
+      <c r="AU6" t="n">
         <v>2.63905732961526</v>
       </c>
-      <c r="AU6" t="n">
+      <c r="AV6" t="n">
         <v>1.6094379124341</v>
       </c>
-      <c r="AV6" t="n">
+      <c r="AW6" t="n">
         <v>5.31811999384422</v>
       </c>
-      <c r="AW6" t="n">
+      <c r="AX6" t="n">
         <v>4.20469261939097</v>
       </c>
-      <c r="AX6" t="n">
+      <c r="AY6" t="n">
         <v>4.30406509320417</v>
       </c>
-      <c r="AY6" t="n">
+      <c r="AZ6" t="n">
         <v>5.99146454710798</v>
       </c>
-      <c r="AZ6" t="n">
+      <c r="BA6" t="n">
         <v>3.66356164612965</v>
       </c>
-      <c r="BA6" t="n">
+      <c r="BB6" t="n">
         <v>2.19722457733622</v>
       </c>
-      <c r="BB6" t="n">
+      <c r="BC6" t="n">
         <v>4.33073334028633</v>
       </c>
-      <c r="BC6" t="n">
+      <c r="BD6" t="n">
         <v>2.77258872223978</v>
       </c>
-      <c r="BD6" t="n">
+      <c r="BE6" t="n">
         <v>1.38629436111989</v>
       </c>
-      <c r="BE6" t="n">
+      <c r="BF6" t="n">
         <v>2.39789527279837</v>
       </c>
-      <c r="BF6" t="n">
+      <c r="BG6" t="n">
         <v>3.2188758248682</v>
       </c>
-      <c r="BG6" t="n">
+      <c r="BH6" t="n">
         <v>2.484906649788</v>
       </c>
-      <c r="BH6" t="n">
+      <c r="BI6" t="n">
         <v>3.93182563272433</v>
       </c>
-      <c r="BI6" t="n">
+      <c r="BJ6" t="n">
         <v>5.11799381241676</v>
       </c>
-      <c r="BJ6" t="n">
+      <c r="BK6" t="n">
         <v>3.78418963391826</v>
       </c>
-      <c r="BK6" t="n">
+      <c r="BL6" t="n">
         <v>1.94591014905531</v>
       </c>
-      <c r="BL6" t="n">
+      <c r="BM6" t="n">
         <v>6.06610809010375</v>
       </c>
-      <c r="BM6" t="n">
+      <c r="BN6" t="n">
         <v>5.82894561761021</v>
       </c>
-      <c r="BN6" t="n">
+      <c r="BO6" t="n">
         <v>4.49980967033027</v>
       </c>
-      <c r="BO6" t="n">
+      <c r="BP6" t="n">
         <v>5.4553211153577</v>
       </c>
-      <c r="BP6" t="n">
+      <c r="BQ6" t="n">
         <v>1.6094379124341</v>
       </c>
-      <c r="BQ6" t="n">
+      <c r="BR6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="n">
-        <v>1.09861228866811</v>
+      <c r="A7" t="s">
+        <v>75</v>
       </c>
       <c r="B7" t="n">
         <v>1.09861228866811</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>1.09861228866811</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
         <v>1.09861228866811</v>
       </c>
-      <c r="F7" t="n">
-        <v>0</v>
-      </c>
       <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
         <v>1.6094379124341</v>
       </c>
-      <c r="H7" t="n">
+      <c r="I7" t="n">
         <v>1.09861228866811</v>
       </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
       <c r="J7" t="n">
         <v>0</v>
       </c>
@@ -2188,16 +2248,16 @@
         <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>0.693147180559945</v>
+        <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>0.693147180559945</v>
       </c>
       <c r="O7" t="n">
-        <v>0.693147180559945</v>
+        <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>0.693147180559945</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -2206,13 +2266,13 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
+        <v>0</v>
+      </c>
+      <c r="T7" t="n">
         <v>1.09861228866811</v>
       </c>
-      <c r="T7" t="n">
-        <v>0</v>
-      </c>
       <c r="U7" t="n">
-        <v>0.693147180559945</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0.693147180559945</v>
@@ -2221,11 +2281,11 @@
         <v>0.693147180559945</v>
       </c>
       <c r="X7" t="n">
+        <v>0.693147180559945</v>
+      </c>
+      <c r="Y7" t="n">
         <v>1.09861228866811</v>
       </c>
-      <c r="Y7" t="n">
-        <v>0</v>
-      </c>
       <c r="Z7" t="n">
         <v>0</v>
       </c>
@@ -2233,49 +2293,49 @@
         <v>0</v>
       </c>
       <c r="AB7" t="n">
-        <v>0.693147180559945</v>
+        <v>0</v>
       </c>
       <c r="AC7" t="n">
-        <v>0</v>
+        <v>0.693147180559945</v>
       </c>
       <c r="AD7" t="n">
         <v>0</v>
       </c>
       <c r="AE7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF7" t="n">
         <v>1.94591014905531</v>
-      </c>
-      <c r="AF7" t="n">
-        <v>1.6094379124341</v>
       </c>
       <c r="AG7" t="n">
         <v>1.6094379124341</v>
       </c>
       <c r="AH7" t="n">
+        <v>1.6094379124341</v>
+      </c>
+      <c r="AI7" t="n">
         <v>1.79175946922805</v>
       </c>
-      <c r="AI7" t="n">
-        <v>0.693147180559945</v>
-      </c>
       <c r="AJ7" t="n">
         <v>0.693147180559945</v>
       </c>
       <c r="AK7" t="n">
-        <v>1.09861228866811</v>
+        <v>0.693147180559945</v>
       </c>
       <c r="AL7" t="n">
         <v>1.09861228866811</v>
       </c>
       <c r="AM7" t="n">
-        <v>0.693147180559945</v>
+        <v>1.09861228866811</v>
       </c>
       <c r="AN7" t="n">
-        <v>0</v>
+        <v>0.693147180559945</v>
       </c>
       <c r="AO7" t="n">
-        <v>0.693147180559945</v>
+        <v>0</v>
       </c>
       <c r="AP7" t="n">
-        <v>0</v>
+        <v>0.693147180559945</v>
       </c>
       <c r="AQ7" t="n">
         <v>0</v>
@@ -2287,11 +2347,11 @@
         <v>0</v>
       </c>
       <c r="AT7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU7" t="n">
         <v>1.09861228866811</v>
       </c>
-      <c r="AU7" t="n">
-        <v>0</v>
-      </c>
       <c r="AV7" t="n">
         <v>0</v>
       </c>
@@ -2311,10 +2371,10 @@
         <v>0</v>
       </c>
       <c r="BB7" t="n">
-        <v>0.693147180559945</v>
+        <v>0</v>
       </c>
       <c r="BC7" t="n">
-        <v>0</v>
+        <v>0.693147180559945</v>
       </c>
       <c r="BD7" t="n">
         <v>0</v>
@@ -2356,12 +2416,15 @@
         <v>0</v>
       </c>
       <c r="BQ7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR7" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="n">
-        <v>0</v>
+      <c r="A8" t="s">
+        <v>76</v>
       </c>
       <c r="B8" t="n">
         <v>0</v>
@@ -2559,12 +2622,15 @@
         <v>0</v>
       </c>
       <c r="BO8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP8" t="n">
         <v>2.19722457733622</v>
       </c>
-      <c r="BP8" t="n">
+      <c r="BQ8" t="n">
         <v>1.79175946922805</v>
       </c>
-      <c r="BQ8" t="n">
+      <c r="BR8" t="n">
         <v>0.693147180559945</v>
       </c>
     </row>
@@ -2584,1256 +2650,1274 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="B1" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="C1" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="D1" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="E1" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="F1" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="G1" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="H1" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="I1" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="J1" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="K1" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="L1" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="M1" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="N1" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="O1" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="P1" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="Q1" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="R1" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="S1" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="T1" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="U1" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="V1" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="W1" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="X1" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="Y1" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="Z1" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="AA1" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="AB1" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="AC1" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="AD1" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="AE1" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="AF1" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="AG1" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="AH1" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="AI1" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="AJ1" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="AK1" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="AL1" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="AM1" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="AN1" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="AO1" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="AP1" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="AQ1" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="AR1" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="AS1" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="AT1" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="AU1" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="AV1" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="AW1" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="AX1" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="AY1" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="AZ1" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="BA1" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="BB1" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="BC1" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="BD1" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="BE1" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="BF1" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="BG1" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="BH1" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="BI1" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="BJ1" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="BK1" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="BL1" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="BM1" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="BN1" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="BO1" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="BP1" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="BQ1" t="s">
-        <v>137</v>
+        <v>145</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="B2" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="C2" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="D2" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="E2" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="F2" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="G2" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="H2" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="I2" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="J2" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="K2" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="L2" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="M2" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="N2" t="s">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="O2" t="s">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="P2" t="s">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="Q2" t="s">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="R2" t="s">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="S2" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="T2" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="U2" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="V2" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="W2" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="X2" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="Y2" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="Z2" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="AA2" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="AB2" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="AC2" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="AD2" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="AE2" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="AF2" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="AG2" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="AH2" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="AI2" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="AJ2" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="AK2" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="AL2" t="s">
-        <v>144</v>
+        <v>154</v>
       </c>
       <c r="AM2" t="s">
-        <v>144</v>
+        <v>154</v>
       </c>
       <c r="AN2" t="s">
-        <v>144</v>
+        <v>154</v>
       </c>
       <c r="AO2" t="s">
-        <v>144</v>
+        <v>154</v>
       </c>
       <c r="AP2" t="s">
-        <v>144</v>
+        <v>154</v>
       </c>
       <c r="AQ2" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="AR2" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="AS2" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="AT2" t="s">
-        <v>146</v>
+        <v>155</v>
       </c>
       <c r="AU2" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="AV2" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="AW2" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="AX2" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="AY2" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="AZ2" t="s">
-        <v>147</v>
+        <v>156</v>
       </c>
       <c r="BA2" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="BB2" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="BC2" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="BD2" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="BE2" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="BF2" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
       <c r="BG2" t="s">
-        <v>148</v>
+        <v>158</v>
       </c>
       <c r="BH2" t="s">
-        <v>148</v>
+        <v>158</v>
       </c>
       <c r="BI2" t="s">
-        <v>148</v>
+        <v>158</v>
       </c>
       <c r="BJ2" t="s">
-        <v>148</v>
+        <v>158</v>
       </c>
       <c r="BK2" t="s">
-        <v>148</v>
+        <v>158</v>
       </c>
       <c r="BL2" t="s">
-        <v>149</v>
+        <v>158</v>
       </c>
       <c r="BM2" t="s">
-        <v>149</v>
+        <v>159</v>
       </c>
       <c r="BN2" t="s">
-        <v>149</v>
+        <v>159</v>
       </c>
       <c r="BO2" t="s">
-        <v>149</v>
+        <v>159</v>
       </c>
       <c r="BP2" t="s">
-        <v>149</v>
+        <v>159</v>
       </c>
       <c r="BQ2" t="s">
-        <v>149</v>
+        <v>159</v>
+      </c>
+      <c r="BR2" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="B3" t="s">
-        <v>150</v>
+        <v>161</v>
       </c>
       <c r="C3" t="s">
-        <v>150</v>
+        <v>161</v>
       </c>
       <c r="D3" t="s">
-        <v>151</v>
+        <v>161</v>
       </c>
       <c r="E3" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
       <c r="F3" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
       <c r="G3" t="s">
-        <v>150</v>
+        <v>162</v>
       </c>
       <c r="H3" t="s">
-        <v>150</v>
+        <v>161</v>
       </c>
       <c r="I3" t="s">
-        <v>150</v>
+        <v>161</v>
       </c>
       <c r="J3" t="s">
-        <v>151</v>
+        <v>161</v>
       </c>
       <c r="K3" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
       <c r="L3" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
       <c r="M3" t="s">
-        <v>150</v>
+        <v>162</v>
       </c>
       <c r="N3" t="s">
-        <v>150</v>
+        <v>161</v>
       </c>
       <c r="O3" t="s">
-        <v>150</v>
+        <v>161</v>
       </c>
       <c r="P3" t="s">
-        <v>151</v>
+        <v>161</v>
       </c>
       <c r="Q3" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
       <c r="R3" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
       <c r="S3" t="s">
-        <v>150</v>
+        <v>162</v>
       </c>
       <c r="T3" t="s">
-        <v>150</v>
+        <v>161</v>
       </c>
       <c r="U3" t="s">
-        <v>150</v>
+        <v>161</v>
       </c>
       <c r="V3" t="s">
-        <v>151</v>
+        <v>161</v>
       </c>
       <c r="W3" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
       <c r="X3" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
       <c r="Y3" t="s">
-        <v>150</v>
+        <v>162</v>
       </c>
       <c r="Z3" t="s">
-        <v>150</v>
+        <v>161</v>
       </c>
       <c r="AA3" t="s">
-        <v>150</v>
+        <v>161</v>
       </c>
       <c r="AB3" t="s">
-        <v>151</v>
+        <v>161</v>
       </c>
       <c r="AC3" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
       <c r="AD3" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
       <c r="AE3" t="s">
-        <v>150</v>
+        <v>162</v>
       </c>
       <c r="AF3" t="s">
-        <v>150</v>
+        <v>161</v>
       </c>
       <c r="AG3" t="s">
-        <v>150</v>
+        <v>161</v>
       </c>
       <c r="AH3" t="s">
-        <v>151</v>
+        <v>161</v>
       </c>
       <c r="AI3" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
       <c r="AJ3" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
       <c r="AK3" t="s">
-        <v>150</v>
+        <v>162</v>
       </c>
       <c r="AL3" t="s">
-        <v>150</v>
+        <v>161</v>
       </c>
       <c r="AM3" t="s">
-        <v>150</v>
+        <v>161</v>
       </c>
       <c r="AN3" t="s">
-        <v>151</v>
+        <v>161</v>
       </c>
       <c r="AO3" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
       <c r="AP3" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
       <c r="AQ3" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
       <c r="AR3" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
       <c r="AS3" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
       <c r="AT3" t="s">
-        <v>150</v>
+        <v>162</v>
       </c>
       <c r="AU3" t="s">
-        <v>150</v>
+        <v>161</v>
       </c>
       <c r="AV3" t="s">
-        <v>150</v>
+        <v>161</v>
       </c>
       <c r="AW3" t="s">
-        <v>151</v>
+        <v>161</v>
       </c>
       <c r="AX3" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
       <c r="AY3" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
       <c r="AZ3" t="s">
-        <v>150</v>
+        <v>162</v>
       </c>
       <c r="BA3" t="s">
-        <v>150</v>
+        <v>161</v>
       </c>
       <c r="BB3" t="s">
-        <v>150</v>
+        <v>161</v>
       </c>
       <c r="BC3" t="s">
-        <v>151</v>
+        <v>161</v>
       </c>
       <c r="BD3" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
       <c r="BE3" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
       <c r="BF3" t="s">
-        <v>150</v>
+        <v>162</v>
       </c>
       <c r="BG3" t="s">
-        <v>150</v>
+        <v>161</v>
       </c>
       <c r="BH3" t="s">
-        <v>150</v>
+        <v>161</v>
       </c>
       <c r="BI3" t="s">
-        <v>151</v>
+        <v>161</v>
       </c>
       <c r="BJ3" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
       <c r="BK3" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
       <c r="BL3" t="s">
-        <v>150</v>
+        <v>162</v>
       </c>
       <c r="BM3" t="s">
-        <v>150</v>
+        <v>161</v>
       </c>
       <c r="BN3" t="s">
-        <v>150</v>
+        <v>161</v>
       </c>
       <c r="BO3" t="s">
-        <v>151</v>
+        <v>161</v>
       </c>
       <c r="BP3" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
       <c r="BQ3" t="s">
-        <v>151</v>
+        <v>162</v>
+      </c>
+      <c r="BR3" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
       <c r="B4" t="s">
-        <v>152</v>
+        <v>164</v>
       </c>
       <c r="C4" t="s">
-        <v>152</v>
+        <v>164</v>
       </c>
       <c r="D4" t="s">
-        <v>153</v>
+        <v>164</v>
       </c>
       <c r="E4" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="F4" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="G4" t="s">
-        <v>154</v>
+        <v>165</v>
       </c>
       <c r="H4" t="s">
-        <v>154</v>
+        <v>166</v>
       </c>
       <c r="I4" t="s">
-        <v>154</v>
+        <v>166</v>
       </c>
       <c r="J4" t="s">
-        <v>155</v>
+        <v>166</v>
       </c>
       <c r="K4" t="s">
-        <v>155</v>
+        <v>167</v>
       </c>
       <c r="L4" t="s">
-        <v>155</v>
+        <v>167</v>
       </c>
       <c r="M4" t="s">
-        <v>156</v>
+        <v>167</v>
       </c>
       <c r="N4" t="s">
-        <v>156</v>
+        <v>168</v>
       </c>
       <c r="O4" t="s">
-        <v>156</v>
+        <v>168</v>
       </c>
       <c r="P4" t="s">
-        <v>157</v>
+        <v>168</v>
       </c>
       <c r="Q4" t="s">
-        <v>157</v>
+        <v>169</v>
       </c>
       <c r="R4" t="s">
-        <v>157</v>
+        <v>169</v>
       </c>
       <c r="S4" t="s">
-        <v>158</v>
+        <v>169</v>
       </c>
       <c r="T4" t="s">
-        <v>158</v>
+        <v>170</v>
       </c>
       <c r="U4" t="s">
-        <v>158</v>
+        <v>170</v>
       </c>
       <c r="V4" t="s">
-        <v>159</v>
+        <v>170</v>
       </c>
       <c r="W4" t="s">
-        <v>159</v>
+        <v>171</v>
       </c>
       <c r="X4" t="s">
-        <v>159</v>
+        <v>171</v>
       </c>
       <c r="Y4" t="s">
-        <v>160</v>
+        <v>171</v>
       </c>
       <c r="Z4" t="s">
-        <v>160</v>
+        <v>172</v>
       </c>
       <c r="AA4" t="s">
-        <v>160</v>
+        <v>172</v>
       </c>
       <c r="AB4" t="s">
-        <v>161</v>
+        <v>172</v>
       </c>
       <c r="AC4" t="s">
-        <v>161</v>
+        <v>173</v>
       </c>
       <c r="AD4" t="s">
-        <v>161</v>
+        <v>173</v>
       </c>
       <c r="AE4" t="s">
-        <v>162</v>
+        <v>173</v>
       </c>
       <c r="AF4" t="s">
-        <v>162</v>
+        <v>174</v>
       </c>
       <c r="AG4" t="s">
-        <v>162</v>
+        <v>174</v>
       </c>
       <c r="AH4" t="s">
-        <v>163</v>
+        <v>174</v>
       </c>
       <c r="AI4" t="s">
-        <v>163</v>
+        <v>175</v>
       </c>
       <c r="AJ4" t="s">
-        <v>163</v>
+        <v>175</v>
       </c>
       <c r="AK4" t="s">
-        <v>164</v>
+        <v>175</v>
       </c>
       <c r="AL4" t="s">
-        <v>164</v>
+        <v>176</v>
       </c>
       <c r="AM4" t="s">
-        <v>164</v>
+        <v>176</v>
       </c>
       <c r="AN4" t="s">
-        <v>165</v>
+        <v>176</v>
       </c>
       <c r="AO4" t="s">
-        <v>165</v>
+        <v>177</v>
       </c>
       <c r="AP4" t="s">
-        <v>165</v>
+        <v>177</v>
       </c>
       <c r="AQ4" t="s">
-        <v>166</v>
+        <v>177</v>
       </c>
       <c r="AR4" t="s">
-        <v>166</v>
+        <v>178</v>
       </c>
       <c r="AS4" t="s">
-        <v>166</v>
+        <v>178</v>
       </c>
       <c r="AT4" t="s">
-        <v>167</v>
+        <v>178</v>
       </c>
       <c r="AU4" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="AV4" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="AW4" t="s">
-        <v>168</v>
+        <v>179</v>
       </c>
       <c r="AX4" t="s">
-        <v>168</v>
+        <v>180</v>
       </c>
       <c r="AY4" t="s">
-        <v>168</v>
+        <v>180</v>
       </c>
       <c r="AZ4" t="s">
-        <v>169</v>
+        <v>180</v>
       </c>
       <c r="BA4" t="s">
-        <v>169</v>
+        <v>181</v>
       </c>
       <c r="BB4" t="s">
-        <v>169</v>
+        <v>181</v>
       </c>
       <c r="BC4" t="s">
-        <v>170</v>
+        <v>181</v>
       </c>
       <c r="BD4" t="s">
-        <v>170</v>
+        <v>182</v>
       </c>
       <c r="BE4" t="s">
-        <v>170</v>
+        <v>182</v>
       </c>
       <c r="BF4" t="s">
-        <v>171</v>
+        <v>182</v>
       </c>
       <c r="BG4" t="s">
-        <v>171</v>
+        <v>183</v>
       </c>
       <c r="BH4" t="s">
-        <v>171</v>
+        <v>183</v>
       </c>
       <c r="BI4" t="s">
-        <v>172</v>
+        <v>183</v>
       </c>
       <c r="BJ4" t="s">
-        <v>172</v>
+        <v>184</v>
       </c>
       <c r="BK4" t="s">
-        <v>172</v>
+        <v>184</v>
       </c>
       <c r="BL4" t="s">
-        <v>173</v>
+        <v>184</v>
       </c>
       <c r="BM4" t="s">
-        <v>173</v>
+        <v>185</v>
       </c>
       <c r="BN4" t="s">
-        <v>173</v>
+        <v>185</v>
       </c>
       <c r="BO4" t="s">
-        <v>174</v>
+        <v>185</v>
       </c>
       <c r="BP4" t="s">
-        <v>174</v>
+        <v>186</v>
       </c>
       <c r="BQ4" t="s">
-        <v>174</v>
+        <v>186</v>
+      </c>
+      <c r="BR4" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>175</v>
+        <v>187</v>
       </c>
       <c r="B5" t="s">
-        <v>175</v>
+        <v>188</v>
       </c>
       <c r="C5" t="s">
-        <v>175</v>
+        <v>188</v>
       </c>
       <c r="D5" t="s">
-        <v>175</v>
+        <v>188</v>
       </c>
       <c r="E5" t="s">
-        <v>175</v>
+        <v>188</v>
       </c>
       <c r="F5" t="s">
-        <v>175</v>
+        <v>188</v>
       </c>
       <c r="G5" t="s">
-        <v>175</v>
+        <v>188</v>
       </c>
       <c r="H5" t="s">
-        <v>175</v>
+        <v>188</v>
       </c>
       <c r="I5" t="s">
-        <v>175</v>
+        <v>188</v>
       </c>
       <c r="J5" t="s">
-        <v>175</v>
+        <v>188</v>
       </c>
       <c r="K5" t="s">
-        <v>175</v>
+        <v>188</v>
       </c>
       <c r="L5" t="s">
-        <v>175</v>
+        <v>188</v>
       </c>
       <c r="M5" t="s">
-        <v>175</v>
+        <v>188</v>
       </c>
       <c r="N5" t="s">
-        <v>175</v>
+        <v>188</v>
       </c>
       <c r="O5" t="s">
-        <v>175</v>
+        <v>188</v>
       </c>
       <c r="P5" t="s">
-        <v>175</v>
+        <v>188</v>
       </c>
       <c r="Q5" t="s">
-        <v>175</v>
+        <v>188</v>
       </c>
       <c r="R5" t="s">
-        <v>175</v>
+        <v>188</v>
       </c>
       <c r="S5" t="s">
-        <v>176</v>
+        <v>188</v>
       </c>
       <c r="T5" t="s">
-        <v>176</v>
+        <v>189</v>
       </c>
       <c r="U5" t="s">
-        <v>176</v>
+        <v>189</v>
       </c>
       <c r="V5" t="s">
-        <v>176</v>
+        <v>189</v>
       </c>
       <c r="W5" t="s">
-        <v>176</v>
+        <v>189</v>
       </c>
       <c r="X5" t="s">
-        <v>176</v>
+        <v>189</v>
       </c>
       <c r="Y5" t="s">
-        <v>177</v>
+        <v>189</v>
       </c>
       <c r="Z5" t="s">
-        <v>177</v>
+        <v>190</v>
       </c>
       <c r="AA5" t="s">
-        <v>177</v>
+        <v>190</v>
       </c>
       <c r="AB5" t="s">
-        <v>177</v>
+        <v>190</v>
       </c>
       <c r="AC5" t="s">
-        <v>177</v>
+        <v>190</v>
       </c>
       <c r="AD5" t="s">
-        <v>177</v>
+        <v>190</v>
       </c>
       <c r="AE5" t="s">
-        <v>176</v>
+        <v>190</v>
       </c>
       <c r="AF5" t="s">
-        <v>176</v>
+        <v>189</v>
       </c>
       <c r="AG5" t="s">
-        <v>176</v>
+        <v>189</v>
       </c>
       <c r="AH5" t="s">
-        <v>176</v>
+        <v>189</v>
       </c>
       <c r="AI5" t="s">
-        <v>176</v>
+        <v>189</v>
       </c>
       <c r="AJ5" t="s">
-        <v>176</v>
+        <v>189</v>
       </c>
       <c r="AK5" t="s">
-        <v>176</v>
+        <v>189</v>
       </c>
       <c r="AL5" t="s">
-        <v>176</v>
+        <v>189</v>
       </c>
       <c r="AM5" t="s">
-        <v>176</v>
+        <v>189</v>
       </c>
       <c r="AN5" t="s">
-        <v>176</v>
+        <v>189</v>
       </c>
       <c r="AO5" t="s">
-        <v>176</v>
+        <v>189</v>
       </c>
       <c r="AP5" t="s">
-        <v>176</v>
+        <v>189</v>
       </c>
       <c r="AQ5" t="s">
-        <v>175</v>
+        <v>189</v>
       </c>
       <c r="AR5" t="s">
-        <v>175</v>
+        <v>188</v>
       </c>
       <c r="AS5" t="s">
-        <v>175</v>
+        <v>188</v>
       </c>
       <c r="AT5" t="s">
-        <v>175</v>
+        <v>188</v>
       </c>
       <c r="AU5" t="s">
-        <v>175</v>
+        <v>188</v>
       </c>
       <c r="AV5" t="s">
-        <v>175</v>
+        <v>188</v>
       </c>
       <c r="AW5" t="s">
-        <v>175</v>
+        <v>188</v>
       </c>
       <c r="AX5" t="s">
-        <v>175</v>
+        <v>188</v>
       </c>
       <c r="AY5" t="s">
-        <v>175</v>
+        <v>188</v>
       </c>
       <c r="AZ5" t="s">
-        <v>177</v>
+        <v>188</v>
       </c>
       <c r="BA5" t="s">
-        <v>177</v>
+        <v>190</v>
       </c>
       <c r="BB5" t="s">
-        <v>177</v>
+        <v>190</v>
       </c>
       <c r="BC5" t="s">
-        <v>177</v>
+        <v>190</v>
       </c>
       <c r="BD5" t="s">
-        <v>177</v>
+        <v>190</v>
       </c>
       <c r="BE5" t="s">
-        <v>177</v>
+        <v>190</v>
       </c>
       <c r="BF5" t="s">
-        <v>177</v>
+        <v>190</v>
       </c>
       <c r="BG5" t="s">
-        <v>177</v>
+        <v>190</v>
       </c>
       <c r="BH5" t="s">
-        <v>177</v>
+        <v>190</v>
       </c>
       <c r="BI5" t="s">
-        <v>177</v>
+        <v>190</v>
       </c>
       <c r="BJ5" t="s">
-        <v>177</v>
+        <v>190</v>
       </c>
       <c r="BK5" t="s">
-        <v>177</v>
+        <v>190</v>
       </c>
       <c r="BL5" t="s">
-        <v>177</v>
+        <v>190</v>
       </c>
       <c r="BM5" t="s">
-        <v>177</v>
+        <v>190</v>
       </c>
       <c r="BN5" t="s">
-        <v>177</v>
+        <v>190</v>
       </c>
       <c r="BO5" t="s">
-        <v>177</v>
+        <v>190</v>
       </c>
       <c r="BP5" t="s">
-        <v>177</v>
+        <v>190</v>
       </c>
       <c r="BQ5" t="s">
-        <v>177</v>
+        <v>190</v>
+      </c>
+      <c r="BR5" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>178</v>
+        <v>191</v>
       </c>
       <c r="B6" t="s">
-        <v>178</v>
+        <v>192</v>
       </c>
       <c r="C6" t="s">
-        <v>178</v>
+        <v>192</v>
       </c>
       <c r="D6" t="s">
-        <v>179</v>
+        <v>192</v>
       </c>
       <c r="E6" t="s">
-        <v>179</v>
+        <v>193</v>
       </c>
       <c r="F6" t="s">
-        <v>179</v>
+        <v>193</v>
       </c>
       <c r="G6" t="s">
-        <v>178</v>
+        <v>193</v>
       </c>
       <c r="H6" t="s">
-        <v>178</v>
+        <v>192</v>
       </c>
       <c r="I6" t="s">
-        <v>178</v>
+        <v>192</v>
       </c>
       <c r="J6" t="s">
-        <v>179</v>
+        <v>192</v>
       </c>
       <c r="K6" t="s">
-        <v>179</v>
+        <v>193</v>
       </c>
       <c r="L6" t="s">
-        <v>179</v>
+        <v>193</v>
       </c>
       <c r="M6" t="s">
-        <v>178</v>
+        <v>193</v>
       </c>
       <c r="N6" t="s">
-        <v>178</v>
+        <v>192</v>
       </c>
       <c r="O6" t="s">
-        <v>178</v>
+        <v>192</v>
       </c>
       <c r="P6" t="s">
-        <v>179</v>
+        <v>192</v>
       </c>
       <c r="Q6" t="s">
-        <v>179</v>
+        <v>193</v>
       </c>
       <c r="R6" t="s">
-        <v>179</v>
+        <v>193</v>
       </c>
       <c r="S6" t="s">
-        <v>180</v>
+        <v>193</v>
       </c>
       <c r="T6" t="s">
-        <v>180</v>
+        <v>194</v>
       </c>
       <c r="U6" t="s">
-        <v>180</v>
+        <v>194</v>
       </c>
       <c r="V6" t="s">
-        <v>181</v>
+        <v>194</v>
       </c>
       <c r="W6" t="s">
-        <v>181</v>
+        <v>195</v>
       </c>
       <c r="X6" t="s">
-        <v>181</v>
+        <v>195</v>
       </c>
       <c r="Y6" t="s">
-        <v>182</v>
+        <v>195</v>
       </c>
       <c r="Z6" t="s">
-        <v>182</v>
+        <v>196</v>
       </c>
       <c r="AA6" t="s">
-        <v>182</v>
+        <v>196</v>
       </c>
       <c r="AB6" t="s">
-        <v>183</v>
+        <v>196</v>
       </c>
       <c r="AC6" t="s">
-        <v>183</v>
+        <v>197</v>
       </c>
       <c r="AD6" t="s">
-        <v>183</v>
+        <v>197</v>
       </c>
       <c r="AE6" t="s">
-        <v>180</v>
+        <v>197</v>
       </c>
       <c r="AF6" t="s">
-        <v>180</v>
+        <v>194</v>
       </c>
       <c r="AG6" t="s">
-        <v>180</v>
+        <v>194</v>
       </c>
       <c r="AH6" t="s">
-        <v>181</v>
+        <v>194</v>
       </c>
       <c r="AI6" t="s">
-        <v>181</v>
+        <v>195</v>
       </c>
       <c r="AJ6" t="s">
-        <v>181</v>
+        <v>195</v>
       </c>
       <c r="AK6" t="s">
-        <v>180</v>
+        <v>195</v>
       </c>
       <c r="AL6" t="s">
-        <v>180</v>
+        <v>194</v>
       </c>
       <c r="AM6" t="s">
-        <v>180</v>
+        <v>194</v>
       </c>
       <c r="AN6" t="s">
-        <v>181</v>
+        <v>194</v>
       </c>
       <c r="AO6" t="s">
-        <v>181</v>
+        <v>195</v>
       </c>
       <c r="AP6" t="s">
-        <v>181</v>
+        <v>195</v>
       </c>
       <c r="AQ6" t="s">
-        <v>179</v>
+        <v>195</v>
       </c>
       <c r="AR6" t="s">
-        <v>179</v>
+        <v>193</v>
       </c>
       <c r="AS6" t="s">
-        <v>179</v>
+        <v>193</v>
       </c>
       <c r="AT6" t="s">
-        <v>178</v>
+        <v>193</v>
       </c>
       <c r="AU6" t="s">
-        <v>178</v>
+        <v>192</v>
       </c>
       <c r="AV6" t="s">
-        <v>178</v>
+        <v>192</v>
       </c>
       <c r="AW6" t="s">
-        <v>179</v>
+        <v>192</v>
       </c>
       <c r="AX6" t="s">
-        <v>179</v>
+        <v>193</v>
       </c>
       <c r="AY6" t="s">
-        <v>179</v>
+        <v>193</v>
       </c>
       <c r="AZ6" t="s">
-        <v>182</v>
+        <v>193</v>
       </c>
       <c r="BA6" t="s">
-        <v>182</v>
+        <v>196</v>
       </c>
       <c r="BB6" t="s">
-        <v>182</v>
+        <v>196</v>
       </c>
       <c r="BC6" t="s">
-        <v>183</v>
+        <v>196</v>
       </c>
       <c r="BD6" t="s">
-        <v>183</v>
+        <v>197</v>
       </c>
       <c r="BE6" t="s">
-        <v>183</v>
+        <v>197</v>
       </c>
       <c r="BF6" t="s">
-        <v>182</v>
+        <v>197</v>
       </c>
       <c r="BG6" t="s">
-        <v>182</v>
+        <v>196</v>
       </c>
       <c r="BH6" t="s">
-        <v>182</v>
+        <v>196</v>
       </c>
       <c r="BI6" t="s">
-        <v>183</v>
+        <v>196</v>
       </c>
       <c r="BJ6" t="s">
-        <v>183</v>
+        <v>197</v>
       </c>
       <c r="BK6" t="s">
-        <v>183</v>
+        <v>197</v>
       </c>
       <c r="BL6" t="s">
-        <v>182</v>
+        <v>197</v>
       </c>
       <c r="BM6" t="s">
-        <v>182</v>
+        <v>196</v>
       </c>
       <c r="BN6" t="s">
-        <v>182</v>
+        <v>196</v>
       </c>
       <c r="BO6" t="s">
-        <v>183</v>
+        <v>196</v>
       </c>
       <c r="BP6" t="s">
-        <v>183</v>
+        <v>197</v>
       </c>
       <c r="BQ6" t="s">
-        <v>183</v>
+        <v>197</v>
+      </c>
+      <c r="BR6" t="s">
+        <v>197</v>
       </c>
     </row>
   </sheetData>

--- a/Multi-taxa_data/MollEchino/Output/inv_primer.xlsx
+++ b/Multi-taxa_data/MollEchino/Output/inv_primer.xlsx
@@ -456,6 +456,18 @@
     <t xml:space="preserve">X69</t>
   </si>
   <si>
+    <t xml:space="preserve">pressure</t>
+  </si>
+  <si>
+    <t xml:space="preserve">High</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Low</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Medium</t>
+  </si>
+  <si>
     <t xml:space="preserve">site</t>
   </si>
   <si>
@@ -574,18 +586,6 @@
   </si>
   <si>
     <t xml:space="preserve">ZP_S</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pressure</t>
-  </si>
-  <si>
-    <t xml:space="preserve">High</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Low</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Medium</t>
   </si>
   <si>
     <t xml:space="preserve">pressure_depth</t>
@@ -2883,351 +2883,351 @@
         <v>148</v>
       </c>
       <c r="H2" t="s">
+        <v>148</v>
+      </c>
+      <c r="I2" t="s">
+        <v>148</v>
+      </c>
+      <c r="J2" t="s">
+        <v>148</v>
+      </c>
+      <c r="K2" t="s">
+        <v>148</v>
+      </c>
+      <c r="L2" t="s">
+        <v>148</v>
+      </c>
+      <c r="M2" t="s">
+        <v>148</v>
+      </c>
+      <c r="N2" t="s">
+        <v>148</v>
+      </c>
+      <c r="O2" t="s">
+        <v>148</v>
+      </c>
+      <c r="P2" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>148</v>
+      </c>
+      <c r="R2" t="s">
+        <v>148</v>
+      </c>
+      <c r="S2" t="s">
+        <v>148</v>
+      </c>
+      <c r="T2" t="s">
         <v>149</v>
       </c>
-      <c r="I2" t="s">
+      <c r="U2" t="s">
         <v>149</v>
       </c>
-      <c r="J2" t="s">
+      <c r="V2" t="s">
         <v>149</v>
       </c>
-      <c r="K2" t="s">
+      <c r="W2" t="s">
         <v>149</v>
       </c>
-      <c r="L2" t="s">
+      <c r="X2" t="s">
         <v>149</v>
       </c>
-      <c r="M2" t="s">
+      <c r="Y2" t="s">
         <v>149</v>
       </c>
-      <c r="N2" t="s">
+      <c r="Z2" t="s">
         <v>150</v>
       </c>
-      <c r="O2" t="s">
+      <c r="AA2" t="s">
         <v>150</v>
       </c>
-      <c r="P2" t="s">
+      <c r="AB2" t="s">
         <v>150</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="AC2" t="s">
         <v>150</v>
       </c>
-      <c r="R2" t="s">
+      <c r="AD2" t="s">
         <v>150</v>
       </c>
-      <c r="S2" t="s">
+      <c r="AE2" t="s">
         <v>150</v>
       </c>
-      <c r="T2" t="s">
-        <v>151</v>
-      </c>
-      <c r="U2" t="s">
-        <v>151</v>
-      </c>
-      <c r="V2" t="s">
-        <v>151</v>
-      </c>
-      <c r="W2" t="s">
-        <v>151</v>
-      </c>
-      <c r="X2" t="s">
-        <v>151</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>151</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>152</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>152</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>152</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>152</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>152</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>152</v>
-      </c>
       <c r="AF2" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="AG2" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="AH2" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="AI2" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="AJ2" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="AK2" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="AL2" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="AM2" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="AN2" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="AO2" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="AP2" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="AQ2" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="AR2" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="AS2" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="AT2" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="AU2" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="AV2" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="AW2" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="AX2" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="AY2" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="AZ2" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="BA2" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="BB2" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="BC2" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="BD2" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="BE2" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="BF2" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="BG2" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="BH2" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="BI2" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="BJ2" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="BK2" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="BL2" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="BM2" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="BN2" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="BO2" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="BP2" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="BQ2" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="BR2" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
+        <v>151</v>
+      </c>
+      <c r="B3" t="s">
+        <v>152</v>
+      </c>
+      <c r="C3" t="s">
+        <v>152</v>
+      </c>
+      <c r="D3" t="s">
+        <v>152</v>
+      </c>
+      <c r="E3" t="s">
+        <v>152</v>
+      </c>
+      <c r="F3" t="s">
+        <v>152</v>
+      </c>
+      <c r="G3" t="s">
+        <v>152</v>
+      </c>
+      <c r="H3" t="s">
+        <v>153</v>
+      </c>
+      <c r="I3" t="s">
+        <v>153</v>
+      </c>
+      <c r="J3" t="s">
+        <v>153</v>
+      </c>
+      <c r="K3" t="s">
+        <v>153</v>
+      </c>
+      <c r="L3" t="s">
+        <v>153</v>
+      </c>
+      <c r="M3" t="s">
+        <v>153</v>
+      </c>
+      <c r="N3" t="s">
+        <v>154</v>
+      </c>
+      <c r="O3" t="s">
+        <v>154</v>
+      </c>
+      <c r="P3" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>154</v>
+      </c>
+      <c r="R3" t="s">
+        <v>154</v>
+      </c>
+      <c r="S3" t="s">
+        <v>154</v>
+      </c>
+      <c r="T3" t="s">
+        <v>155</v>
+      </c>
+      <c r="U3" t="s">
+        <v>155</v>
+      </c>
+      <c r="V3" t="s">
+        <v>155</v>
+      </c>
+      <c r="W3" t="s">
+        <v>155</v>
+      </c>
+      <c r="X3" t="s">
+        <v>155</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>155</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>156</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>156</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>156</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>156</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>156</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>156</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>157</v>
+      </c>
+      <c r="AG3" t="s">
+        <v>157</v>
+      </c>
+      <c r="AH3" t="s">
+        <v>157</v>
+      </c>
+      <c r="AI3" t="s">
+        <v>157</v>
+      </c>
+      <c r="AJ3" t="s">
+        <v>157</v>
+      </c>
+      <c r="AK3" t="s">
+        <v>157</v>
+      </c>
+      <c r="AL3" t="s">
+        <v>158</v>
+      </c>
+      <c r="AM3" t="s">
+        <v>158</v>
+      </c>
+      <c r="AN3" t="s">
+        <v>158</v>
+      </c>
+      <c r="AO3" t="s">
+        <v>158</v>
+      </c>
+      <c r="AP3" t="s">
+        <v>158</v>
+      </c>
+      <c r="AQ3" t="s">
+        <v>158</v>
+      </c>
+      <c r="AR3" t="s">
+        <v>159</v>
+      </c>
+      <c r="AS3" t="s">
+        <v>159</v>
+      </c>
+      <c r="AT3" t="s">
+        <v>159</v>
+      </c>
+      <c r="AU3" t="s">
         <v>160</v>
       </c>
-      <c r="B3" t="s">
-        <v>161</v>
-      </c>
-      <c r="C3" t="s">
-        <v>161</v>
-      </c>
-      <c r="D3" t="s">
-        <v>161</v>
-      </c>
-      <c r="E3" t="s">
-        <v>162</v>
-      </c>
-      <c r="F3" t="s">
-        <v>162</v>
-      </c>
-      <c r="G3" t="s">
-        <v>162</v>
-      </c>
-      <c r="H3" t="s">
-        <v>161</v>
-      </c>
-      <c r="I3" t="s">
-        <v>161</v>
-      </c>
-      <c r="J3" t="s">
-        <v>161</v>
-      </c>
-      <c r="K3" t="s">
-        <v>162</v>
-      </c>
-      <c r="L3" t="s">
-        <v>162</v>
-      </c>
-      <c r="M3" t="s">
-        <v>162</v>
-      </c>
-      <c r="N3" t="s">
-        <v>161</v>
-      </c>
-      <c r="O3" t="s">
-        <v>161</v>
-      </c>
-      <c r="P3" t="s">
-        <v>161</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>162</v>
-      </c>
-      <c r="R3" t="s">
-        <v>162</v>
-      </c>
-      <c r="S3" t="s">
-        <v>162</v>
-      </c>
-      <c r="T3" t="s">
-        <v>161</v>
-      </c>
-      <c r="U3" t="s">
-        <v>161</v>
-      </c>
-      <c r="V3" t="s">
-        <v>161</v>
-      </c>
-      <c r="W3" t="s">
-        <v>162</v>
-      </c>
-      <c r="X3" t="s">
-        <v>162</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>162</v>
-      </c>
-      <c r="Z3" t="s">
-        <v>161</v>
-      </c>
-      <c r="AA3" t="s">
-        <v>161</v>
-      </c>
-      <c r="AB3" t="s">
-        <v>161</v>
-      </c>
-      <c r="AC3" t="s">
-        <v>162</v>
-      </c>
-      <c r="AD3" t="s">
-        <v>162</v>
-      </c>
-      <c r="AE3" t="s">
-        <v>162</v>
-      </c>
-      <c r="AF3" t="s">
-        <v>161</v>
-      </c>
-      <c r="AG3" t="s">
-        <v>161</v>
-      </c>
-      <c r="AH3" t="s">
-        <v>161</v>
-      </c>
-      <c r="AI3" t="s">
-        <v>162</v>
-      </c>
-      <c r="AJ3" t="s">
-        <v>162</v>
-      </c>
-      <c r="AK3" t="s">
-        <v>162</v>
-      </c>
-      <c r="AL3" t="s">
-        <v>161</v>
-      </c>
-      <c r="AM3" t="s">
-        <v>161</v>
-      </c>
-      <c r="AN3" t="s">
-        <v>161</v>
-      </c>
-      <c r="AO3" t="s">
-        <v>162</v>
-      </c>
-      <c r="AP3" t="s">
-        <v>162</v>
-      </c>
-      <c r="AQ3" t="s">
-        <v>162</v>
-      </c>
-      <c r="AR3" t="s">
-        <v>162</v>
-      </c>
-      <c r="AS3" t="s">
-        <v>162</v>
-      </c>
-      <c r="AT3" t="s">
-        <v>162</v>
-      </c>
-      <c r="AU3" t="s">
-        <v>161</v>
-      </c>
       <c r="AV3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="AW3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="AX3" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="AY3" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="AZ3" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="BA3" t="s">
         <v>161</v>
@@ -3239,22 +3239,22 @@
         <v>161</v>
       </c>
       <c r="BD3" t="s">
+        <v>161</v>
+      </c>
+      <c r="BE3" t="s">
+        <v>161</v>
+      </c>
+      <c r="BF3" t="s">
+        <v>161</v>
+      </c>
+      <c r="BG3" t="s">
         <v>162</v>
       </c>
-      <c r="BE3" t="s">
+      <c r="BH3" t="s">
         <v>162</v>
       </c>
-      <c r="BF3" t="s">
+      <c r="BI3" t="s">
         <v>162</v>
-      </c>
-      <c r="BG3" t="s">
-        <v>161</v>
-      </c>
-      <c r="BH3" t="s">
-        <v>161</v>
-      </c>
-      <c r="BI3" t="s">
-        <v>161</v>
       </c>
       <c r="BJ3" t="s">
         <v>162</v>
@@ -3266,437 +3266,437 @@
         <v>162</v>
       </c>
       <c r="BM3" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="BN3" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="BO3" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="BP3" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="BQ3" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="BR3" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B4" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C4" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D4" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E4" t="s">
+        <v>166</v>
+      </c>
+      <c r="F4" t="s">
+        <v>166</v>
+      </c>
+      <c r="G4" t="s">
+        <v>166</v>
+      </c>
+      <c r="H4" t="s">
         <v>165</v>
       </c>
-      <c r="F4" t="s">
+      <c r="I4" t="s">
         <v>165</v>
       </c>
-      <c r="G4" t="s">
+      <c r="J4" t="s">
         <v>165</v>
       </c>
-      <c r="H4" t="s">
+      <c r="K4" t="s">
         <v>166</v>
       </c>
-      <c r="I4" t="s">
+      <c r="L4" t="s">
         <v>166</v>
       </c>
-      <c r="J4" t="s">
+      <c r="M4" t="s">
         <v>166</v>
       </c>
-      <c r="K4" t="s">
-        <v>167</v>
-      </c>
-      <c r="L4" t="s">
-        <v>167</v>
-      </c>
-      <c r="M4" t="s">
-        <v>167</v>
-      </c>
       <c r="N4" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="O4" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="P4" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="Q4" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="R4" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="S4" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="T4" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="U4" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="V4" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="W4" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="X4" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="Y4" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="Z4" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="AA4" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="AB4" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="AC4" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="AD4" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="AE4" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="AF4" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="AG4" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="AH4" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="AI4" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="AJ4" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="AK4" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="AL4" t="s">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="AM4" t="s">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="AN4" t="s">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="AO4" t="s">
-        <v>177</v>
+        <v>166</v>
       </c>
       <c r="AP4" t="s">
-        <v>177</v>
+        <v>166</v>
       </c>
       <c r="AQ4" t="s">
-        <v>177</v>
+        <v>166</v>
       </c>
       <c r="AR4" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
       <c r="AS4" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
       <c r="AT4" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
       <c r="AU4" t="s">
-        <v>179</v>
+        <v>165</v>
       </c>
       <c r="AV4" t="s">
-        <v>179</v>
+        <v>165</v>
       </c>
       <c r="AW4" t="s">
-        <v>179</v>
+        <v>165</v>
       </c>
       <c r="AX4" t="s">
-        <v>180</v>
+        <v>166</v>
       </c>
       <c r="AY4" t="s">
-        <v>180</v>
+        <v>166</v>
       </c>
       <c r="AZ4" t="s">
-        <v>180</v>
+        <v>166</v>
       </c>
       <c r="BA4" t="s">
-        <v>181</v>
+        <v>165</v>
       </c>
       <c r="BB4" t="s">
-        <v>181</v>
+        <v>165</v>
       </c>
       <c r="BC4" t="s">
-        <v>181</v>
+        <v>165</v>
       </c>
       <c r="BD4" t="s">
-        <v>182</v>
+        <v>166</v>
       </c>
       <c r="BE4" t="s">
-        <v>182</v>
+        <v>166</v>
       </c>
       <c r="BF4" t="s">
-        <v>182</v>
+        <v>166</v>
       </c>
       <c r="BG4" t="s">
-        <v>183</v>
+        <v>165</v>
       </c>
       <c r="BH4" t="s">
-        <v>183</v>
+        <v>165</v>
       </c>
       <c r="BI4" t="s">
-        <v>183</v>
+        <v>165</v>
       </c>
       <c r="BJ4" t="s">
-        <v>184</v>
+        <v>166</v>
       </c>
       <c r="BK4" t="s">
-        <v>184</v>
+        <v>166</v>
       </c>
       <c r="BL4" t="s">
-        <v>184</v>
+        <v>166</v>
       </c>
       <c r="BM4" t="s">
-        <v>185</v>
+        <v>165</v>
       </c>
       <c r="BN4" t="s">
-        <v>185</v>
+        <v>165</v>
       </c>
       <c r="BO4" t="s">
-        <v>185</v>
+        <v>165</v>
       </c>
       <c r="BP4" t="s">
-        <v>186</v>
+        <v>166</v>
       </c>
       <c r="BQ4" t="s">
-        <v>186</v>
+        <v>166</v>
       </c>
       <c r="BR4" t="s">
-        <v>186</v>
+        <v>166</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
+        <v>167</v>
+      </c>
+      <c r="B5" t="s">
+        <v>168</v>
+      </c>
+      <c r="C5" t="s">
+        <v>168</v>
+      </c>
+      <c r="D5" t="s">
+        <v>168</v>
+      </c>
+      <c r="E5" t="s">
+        <v>169</v>
+      </c>
+      <c r="F5" t="s">
+        <v>169</v>
+      </c>
+      <c r="G5" t="s">
+        <v>169</v>
+      </c>
+      <c r="H5" t="s">
+        <v>170</v>
+      </c>
+      <c r="I5" t="s">
+        <v>170</v>
+      </c>
+      <c r="J5" t="s">
+        <v>170</v>
+      </c>
+      <c r="K5" t="s">
+        <v>171</v>
+      </c>
+      <c r="L5" t="s">
+        <v>171</v>
+      </c>
+      <c r="M5" t="s">
+        <v>171</v>
+      </c>
+      <c r="N5" t="s">
+        <v>172</v>
+      </c>
+      <c r="O5" t="s">
+        <v>172</v>
+      </c>
+      <c r="P5" t="s">
+        <v>172</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>173</v>
+      </c>
+      <c r="R5" t="s">
+        <v>173</v>
+      </c>
+      <c r="S5" t="s">
+        <v>173</v>
+      </c>
+      <c r="T5" t="s">
+        <v>174</v>
+      </c>
+      <c r="U5" t="s">
+        <v>174</v>
+      </c>
+      <c r="V5" t="s">
+        <v>174</v>
+      </c>
+      <c r="W5" t="s">
+        <v>175</v>
+      </c>
+      <c r="X5" t="s">
+        <v>175</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>175</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>176</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>176</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>176</v>
+      </c>
+      <c r="AC5" t="s">
+        <v>177</v>
+      </c>
+      <c r="AD5" t="s">
+        <v>177</v>
+      </c>
+      <c r="AE5" t="s">
+        <v>177</v>
+      </c>
+      <c r="AF5" t="s">
+        <v>178</v>
+      </c>
+      <c r="AG5" t="s">
+        <v>178</v>
+      </c>
+      <c r="AH5" t="s">
+        <v>178</v>
+      </c>
+      <c r="AI5" t="s">
+        <v>179</v>
+      </c>
+      <c r="AJ5" t="s">
+        <v>179</v>
+      </c>
+      <c r="AK5" t="s">
+        <v>179</v>
+      </c>
+      <c r="AL5" t="s">
+        <v>180</v>
+      </c>
+      <c r="AM5" t="s">
+        <v>180</v>
+      </c>
+      <c r="AN5" t="s">
+        <v>180</v>
+      </c>
+      <c r="AO5" t="s">
+        <v>181</v>
+      </c>
+      <c r="AP5" t="s">
+        <v>181</v>
+      </c>
+      <c r="AQ5" t="s">
+        <v>181</v>
+      </c>
+      <c r="AR5" t="s">
+        <v>182</v>
+      </c>
+      <c r="AS5" t="s">
+        <v>182</v>
+      </c>
+      <c r="AT5" t="s">
+        <v>182</v>
+      </c>
+      <c r="AU5" t="s">
+        <v>183</v>
+      </c>
+      <c r="AV5" t="s">
+        <v>183</v>
+      </c>
+      <c r="AW5" t="s">
+        <v>183</v>
+      </c>
+      <c r="AX5" t="s">
+        <v>184</v>
+      </c>
+      <c r="AY5" t="s">
+        <v>184</v>
+      </c>
+      <c r="AZ5" t="s">
+        <v>184</v>
+      </c>
+      <c r="BA5" t="s">
+        <v>185</v>
+      </c>
+      <c r="BB5" t="s">
+        <v>185</v>
+      </c>
+      <c r="BC5" t="s">
+        <v>185</v>
+      </c>
+      <c r="BD5" t="s">
+        <v>186</v>
+      </c>
+      <c r="BE5" t="s">
+        <v>186</v>
+      </c>
+      <c r="BF5" t="s">
+        <v>186</v>
+      </c>
+      <c r="BG5" t="s">
         <v>187</v>
       </c>
-      <c r="B5" t="s">
+      <c r="BH5" t="s">
+        <v>187</v>
+      </c>
+      <c r="BI5" t="s">
+        <v>187</v>
+      </c>
+      <c r="BJ5" t="s">
         <v>188</v>
       </c>
-      <c r="C5" t="s">
+      <c r="BK5" t="s">
         <v>188</v>
       </c>
-      <c r="D5" t="s">
+      <c r="BL5" t="s">
         <v>188</v>
       </c>
-      <c r="E5" t="s">
-        <v>188</v>
-      </c>
-      <c r="F5" t="s">
-        <v>188</v>
-      </c>
-      <c r="G5" t="s">
-        <v>188</v>
-      </c>
-      <c r="H5" t="s">
-        <v>188</v>
-      </c>
-      <c r="I5" t="s">
-        <v>188</v>
-      </c>
-      <c r="J5" t="s">
-        <v>188</v>
-      </c>
-      <c r="K5" t="s">
-        <v>188</v>
-      </c>
-      <c r="L5" t="s">
-        <v>188</v>
-      </c>
-      <c r="M5" t="s">
-        <v>188</v>
-      </c>
-      <c r="N5" t="s">
-        <v>188</v>
-      </c>
-      <c r="O5" t="s">
-        <v>188</v>
-      </c>
-      <c r="P5" t="s">
-        <v>188</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>188</v>
-      </c>
-      <c r="R5" t="s">
-        <v>188</v>
-      </c>
-      <c r="S5" t="s">
-        <v>188</v>
-      </c>
-      <c r="T5" t="s">
+      <c r="BM5" t="s">
         <v>189</v>
       </c>
-      <c r="U5" t="s">
+      <c r="BN5" t="s">
         <v>189</v>
       </c>
-      <c r="V5" t="s">
+      <c r="BO5" t="s">
         <v>189</v>
-      </c>
-      <c r="W5" t="s">
-        <v>189</v>
-      </c>
-      <c r="X5" t="s">
-        <v>189</v>
-      </c>
-      <c r="Y5" t="s">
-        <v>189</v>
-      </c>
-      <c r="Z5" t="s">
-        <v>190</v>
-      </c>
-      <c r="AA5" t="s">
-        <v>190</v>
-      </c>
-      <c r="AB5" t="s">
-        <v>190</v>
-      </c>
-      <c r="AC5" t="s">
-        <v>190</v>
-      </c>
-      <c r="AD5" t="s">
-        <v>190</v>
-      </c>
-      <c r="AE5" t="s">
-        <v>190</v>
-      </c>
-      <c r="AF5" t="s">
-        <v>189</v>
-      </c>
-      <c r="AG5" t="s">
-        <v>189</v>
-      </c>
-      <c r="AH5" t="s">
-        <v>189</v>
-      </c>
-      <c r="AI5" t="s">
-        <v>189</v>
-      </c>
-      <c r="AJ5" t="s">
-        <v>189</v>
-      </c>
-      <c r="AK5" t="s">
-        <v>189</v>
-      </c>
-      <c r="AL5" t="s">
-        <v>189</v>
-      </c>
-      <c r="AM5" t="s">
-        <v>189</v>
-      </c>
-      <c r="AN5" t="s">
-        <v>189</v>
-      </c>
-      <c r="AO5" t="s">
-        <v>189</v>
-      </c>
-      <c r="AP5" t="s">
-        <v>189</v>
-      </c>
-      <c r="AQ5" t="s">
-        <v>189</v>
-      </c>
-      <c r="AR5" t="s">
-        <v>188</v>
-      </c>
-      <c r="AS5" t="s">
-        <v>188</v>
-      </c>
-      <c r="AT5" t="s">
-        <v>188</v>
-      </c>
-      <c r="AU5" t="s">
-        <v>188</v>
-      </c>
-      <c r="AV5" t="s">
-        <v>188</v>
-      </c>
-      <c r="AW5" t="s">
-        <v>188</v>
-      </c>
-      <c r="AX5" t="s">
-        <v>188</v>
-      </c>
-      <c r="AY5" t="s">
-        <v>188</v>
-      </c>
-      <c r="AZ5" t="s">
-        <v>188</v>
-      </c>
-      <c r="BA5" t="s">
-        <v>190</v>
-      </c>
-      <c r="BB5" t="s">
-        <v>190</v>
-      </c>
-      <c r="BC5" t="s">
-        <v>190</v>
-      </c>
-      <c r="BD5" t="s">
-        <v>190</v>
-      </c>
-      <c r="BE5" t="s">
-        <v>190</v>
-      </c>
-      <c r="BF5" t="s">
-        <v>190</v>
-      </c>
-      <c r="BG5" t="s">
-        <v>190</v>
-      </c>
-      <c r="BH5" t="s">
-        <v>190</v>
-      </c>
-      <c r="BI5" t="s">
-        <v>190</v>
-      </c>
-      <c r="BJ5" t="s">
-        <v>190</v>
-      </c>
-      <c r="BK5" t="s">
-        <v>190</v>
-      </c>
-      <c r="BL5" t="s">
-        <v>190</v>
-      </c>
-      <c r="BM5" t="s">
-        <v>190</v>
-      </c>
-      <c r="BN5" t="s">
-        <v>190</v>
-      </c>
-      <c r="BO5" t="s">
-        <v>190</v>
       </c>
       <c r="BP5" t="s">
         <v>190</v>
